--- a/Test/Lawnmower/T2/Sensors_data_1000038.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000038.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9868409638663863</v>
+        <v>0.9947676917191072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005885428174546781</v>
+        <v>0.0001972621755524395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2733919864285904</v>
+        <v>0.0369348061327176</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9361522478469112</v>
+        <v>0.9917851141698318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002309129299371549</v>
+        <v>0.0003674138441800872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00966703493214166</v>
+        <v>0.2773956293077162</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,68 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9736753236349828</v>
+        <v>0.9167721210006309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00146022796117583</v>
+        <v>0.003010034456047736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05116433120654051</v>
+        <v>0.007248169193449117</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9989244127153863</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.893286191779883e-05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02866333969920659</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9961884291615424</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0002861289649681365</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1195487382973909</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
